--- a/Classic List.xlsx
+++ b/Classic List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Programs\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ECB849-F653-4AB6-AB34-6C0017C6C995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C07D0C-AA2C-4820-A21B-4C6EF9CF2F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="3225" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>1109. Corporate Flight Bookings</t>
+  </si>
+  <si>
+    <t>304. Range Sum Query 2D - Immutable</t>
+  </si>
+  <si>
+    <t>二维差分</t>
+  </si>
+  <si>
+    <t>一维差分</t>
+  </si>
+  <si>
+    <t>41. First Missing Positive</t>
+  </si>
+  <si>
+    <t>410. Split Array Largest Sum</t>
+  </si>
+  <si>
+    <t>二分搜索 / 动规</t>
   </si>
 </sst>
 </file>
@@ -356,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,14 +386,41 @@
     <col min="2" max="2" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://leetcode.com/problems/corporate-flight-bookings/" xr:uid="{F1FB65BC-E1E2-4580-85A6-4C479307C9E0}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://leetcode.com/problems/range-sum-query-2d-immutable" xr:uid="{8F9198BA-D679-459B-BDCC-C579ACF951C3}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://leetcode.com/problems/first-missing-positive/" xr:uid="{DE8F9FB8-D73B-48AE-A43A-806068021B2F}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://leetcode.com/problems/split-array-largest-sum/" xr:uid="{B4160931-6949-4052-BAE0-54E11D62577B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Classic List.xlsx
+++ b/Classic List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Programs\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C07D0C-AA2C-4820-A21B-4C6EF9CF2F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A09F429-EB83-4B1E-BD32-9C11B0AD346B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="3225" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>1109. Corporate Flight Bookings</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>二分搜索 / 动规</t>
+  </si>
+  <si>
+    <t>239. Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>单调队列</t>
   </si>
 </sst>
 </file>
@@ -374,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,12 +421,21 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://leetcode.com/problems/corporate-flight-bookings/" xr:uid="{F1FB65BC-E1E2-4580-85A6-4C479307C9E0}"/>
     <hyperlink ref="A2" r:id="rId2" display="https://leetcode.com/problems/range-sum-query-2d-immutable" xr:uid="{8F9198BA-D679-459B-BDCC-C579ACF951C3}"/>
     <hyperlink ref="A3" r:id="rId3" display="https://leetcode.com/problems/first-missing-positive/" xr:uid="{DE8F9FB8-D73B-48AE-A43A-806068021B2F}"/>
     <hyperlink ref="A4" r:id="rId4" display="https://leetcode.com/problems/split-array-largest-sum/" xr:uid="{B4160931-6949-4052-BAE0-54E11D62577B}"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://leetcode.com/problems/sliding-window-maximum/" xr:uid="{5D510F35-5846-43EF-94AD-A0E2BCBB673C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Classic List.xlsx
+++ b/Classic List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Programs\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A09F429-EB83-4B1E-BD32-9C11B0AD346B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158781AB-8D9B-4031-B799-950EBBE13AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="3225" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>1109. Corporate Flight Bookings</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>单调队列</t>
+  </si>
+  <si>
+    <t>210. Course Schedule II</t>
+  </si>
+  <si>
+    <t>拓扑排序</t>
   </si>
 </sst>
 </file>
@@ -380,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,6 +435,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://leetcode.com/problems/corporate-flight-bookings/" xr:uid="{F1FB65BC-E1E2-4580-85A6-4C479307C9E0}"/>
@@ -436,6 +450,7 @@
     <hyperlink ref="A3" r:id="rId3" display="https://leetcode.com/problems/first-missing-positive/" xr:uid="{DE8F9FB8-D73B-48AE-A43A-806068021B2F}"/>
     <hyperlink ref="A4" r:id="rId4" display="https://leetcode.com/problems/split-array-largest-sum/" xr:uid="{B4160931-6949-4052-BAE0-54E11D62577B}"/>
     <hyperlink ref="A5" r:id="rId5" display="https://leetcode.com/problems/sliding-window-maximum/" xr:uid="{5D510F35-5846-43EF-94AD-A0E2BCBB673C}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://leetcode.com/problems/course-schedule-ii/" xr:uid="{D9E6C425-517F-4CC2-B0A1-7DA9FC375867}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Classic List.xlsx
+++ b/Classic List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Programs\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158781AB-8D9B-4031-B799-950EBBE13AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653FE12E-A5BD-4398-9597-13109B6FE35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="3225" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>1109. Corporate Flight Bookings</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>拓扑排序</t>
+  </si>
+  <si>
+    <t>2290. Minimum Obstacle Removal to Reach Corner</t>
+  </si>
+  <si>
+    <t>01BFS</t>
   </si>
 </sst>
 </file>
@@ -386,15 +392,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -441,6 +447,14 @@
       </c>
       <c r="B6" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -451,6 +465,7 @@
     <hyperlink ref="A4" r:id="rId4" display="https://leetcode.com/problems/split-array-largest-sum/" xr:uid="{B4160931-6949-4052-BAE0-54E11D62577B}"/>
     <hyperlink ref="A5" r:id="rId5" display="https://leetcode.com/problems/sliding-window-maximum/" xr:uid="{5D510F35-5846-43EF-94AD-A0E2BCBB673C}"/>
     <hyperlink ref="A6" r:id="rId6" display="https://leetcode.com/problems/course-schedule-ii/" xr:uid="{D9E6C425-517F-4CC2-B0A1-7DA9FC375867}"/>
+    <hyperlink ref="A7" r:id="rId7" display="https://leetcode.com/problems/minimum-obstacle-removal-to-reach-corner/" xr:uid="{6484BFA6-9ED2-4C02-8D58-55D20C0E7D4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Classic List.xlsx
+++ b/Classic List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Programs\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653FE12E-A5BD-4398-9597-13109B6FE35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E511D60-53C2-49DC-806A-8DA671EFD59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="3225" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>1109. Corporate Flight Bookings</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>01BFS</t>
+  </si>
+  <si>
+    <t>743. Network Delay Time</t>
+  </si>
+  <si>
+    <t>Dijkstra</t>
   </si>
 </sst>
 </file>
@@ -392,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -457,6 +463,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://leetcode.com/problems/corporate-flight-bookings/" xr:uid="{F1FB65BC-E1E2-4580-85A6-4C479307C9E0}"/>
@@ -466,6 +480,7 @@
     <hyperlink ref="A5" r:id="rId5" display="https://leetcode.com/problems/sliding-window-maximum/" xr:uid="{5D510F35-5846-43EF-94AD-A0E2BCBB673C}"/>
     <hyperlink ref="A6" r:id="rId6" display="https://leetcode.com/problems/course-schedule-ii/" xr:uid="{D9E6C425-517F-4CC2-B0A1-7DA9FC375867}"/>
     <hyperlink ref="A7" r:id="rId7" display="https://leetcode.com/problems/minimum-obstacle-removal-to-reach-corner/" xr:uid="{6484BFA6-9ED2-4C02-8D58-55D20C0E7D4F}"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://leetcode.com/problems/network-delay-time/" xr:uid="{7CF86F37-D174-49B8-AA94-A368FD9A83C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Classic List.xlsx
+++ b/Classic List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Programs\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E511D60-53C2-49DC-806A-8DA671EFD59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31350FE7-0770-48A5-9196-031D11F257C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="3225" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,6 +470,9 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Classic List.xlsx
+++ b/Classic List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Programs\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31350FE7-0770-48A5-9196-031D11F257C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4BD7C0-5486-4C79-87FF-3BE53A31326F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="3225" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>1109. Corporate Flight Bookings</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Dijkstra</t>
+  </si>
+  <si>
+    <t>689. Maximum Sum of 3 Non-Overlapping Subarrays</t>
+  </si>
+  <si>
+    <t>300. Longest Increasing Subsequence</t>
   </si>
 </sst>
 </file>
@@ -398,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +478,14 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -484,6 +497,8 @@
     <hyperlink ref="A6" r:id="rId6" display="https://leetcode.com/problems/course-schedule-ii/" xr:uid="{D9E6C425-517F-4CC2-B0A1-7DA9FC375867}"/>
     <hyperlink ref="A7" r:id="rId7" display="https://leetcode.com/problems/minimum-obstacle-removal-to-reach-corner/" xr:uid="{6484BFA6-9ED2-4C02-8D58-55D20C0E7D4F}"/>
     <hyperlink ref="A8" r:id="rId8" display="https://leetcode.com/problems/network-delay-time/" xr:uid="{7CF86F37-D174-49B8-AA94-A368FD9A83C9}"/>
+    <hyperlink ref="A9" r:id="rId9" display="https://leetcode.com/problems/maximum-sum-of-3-non-overlapping-subarrays/" xr:uid="{08DB0A13-51F5-43AD-8FA8-26DBC0AA1A38}"/>
+    <hyperlink ref="A10" r:id="rId10" display="https://leetcode.com/problems/longest-increasing-subsequence/" xr:uid="{A368D2EB-69EE-4B68-AE4C-46322F1E905A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
